--- a/biology/Botanique/Heliconia_psittacorum/Heliconia_psittacorum.xlsx
+++ b/biology/Botanique/Heliconia_psittacorum/Heliconia_psittacorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconia psittacorum est une espèce de plantes à fleurs de la famille des Heliconiaceae. C'est une plante ornementale vivace d'origine néotropicale.
 L'épithète spécifique psittacorum provient du latin psittacus, le perroquet, en référence à ses fleurs colorées.
-En Guyane, on le connaît sous les noms de Petit balisier [ti-balizié] (Créole), Wakaa kig (Palikur), Pacova-catinga (Portugais)[2]
-Au Suriname, on l'appelle Popokai-tongo (Sranan tongo), Papegaaietong, Papegaybek (Hollandais du Suriname), Kulewako anuru, Koerewako anoeroe (Caraibe)[3].
-Dans les Antilles, on le nomme Z'yeux à crabe, Petit balisier, Bec de perroquet[4].
+En Guyane, on le connaît sous les noms de Petit balisier [ti-balizié] (Créole), Wakaa kig (Palikur), Pacova-catinga (Portugais)
+Au Suriname, on l'appelle Popokai-tongo (Sranan tongo), Papegaaietong, Papegaybek (Hollandais du Suriname), Kulewako anuru, Koerewako anoeroe (Caraibe).
+Dans les Antilles, on le nomme Z'yeux à crabe, Petit balisier, Bec de perroquet.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconia psittacorum est une plante herbacée petite à moyenne, haute de 0,5 à 1,50(−2) m.
 Le limbe des feuilles est de forme étroite oblongue-elliptique à linéaire, à l'apex atténué ou acuminé, à base obtuse à aiguë, rarement atténuée (parfois oblique), et mesurant (25-)40-55(-60) x 1,3-10(-12) cm.
@@ -533,8 +547,8 @@
 Les bractéoles sont glabres, étroitement triangulaires, longues de 2,2 cm pour 0,7 cm de large, à apex aigu.
 Les fleurs sont droites, glabres, de couleur orange, à tache verdâtre près de l'apex, et longues de 3-4(-5) cm.
 Le staminode est convexe à wikt:condupliqué, brièvement wikt:cuspidé, et long de 0,6-1,4 cm pour 0,1-0,3 cm de large.
-Le fruit est une capsule subglobuleuse, glabre, portée par un pédicelle glabre atteignant 2,2 cm, de couleur jaune à orange, devenant bleuâtre à maturité, et mesurant jusqu'à 0,9 cm de diamètre[3],[5].
-On note une assez forte variabilité des inflorescences en forme et en couleurs, parfois au sein d'une même population[6].
+Le fruit est une capsule subglobuleuse, glabre, portée par un pédicelle glabre atteignant 2,2 cm, de couleur jaune à orange, devenant bleuâtre à maturité, et mesurant jusqu'à 0,9 cm de diamètre,.
+On note une assez forte variabilité des inflorescences en forme et en couleurs, parfois au sein d'une même population.
 </t>
         </is>
       </c>
@@ -563,10 +577,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconia psittacorum est largement répandu des Petites Antilles, l'Amérique centrale et l'Amérique du Sud tropicale, mais est absente de l'ouest du bassin amazonien[7].
-Il est très commun dans les Guyanes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconia psittacorum est largement répandu des Petites Antilles, l'Amérique centrale et l'Amérique du Sud tropicale, mais est absente de l'ouest du bassin amazonien.
+Il est très commun dans les Guyanes.
 </t>
         </is>
       </c>
@@ -595,10 +611,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconia psittacorum est une plante herbacée aux fleurs vivement colorées  orange à rose, abondante généralement sur les sols inondables, dans les savanes humides et autres milieux ouverts, parfois aussi dans les zones forestières, au Venezuela autour de 0–1 200 m d'altitude[7].
-Elle est pollinisé par des colibris comme le Mango à cravate noire ou l’Ariane de Linné[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconia psittacorum est une plante herbacée aux fleurs vivement colorées  orange à rose, abondante généralement sur les sols inondables, dans les savanes humides et autres milieux ouverts, parfois aussi dans les zones forestières, au Venezuela autour de 0–1 200 m d'altitude.
+Elle est pollinisé par des colibris comme le Mango à cravate noire ou l’Ariane de Linné.
 </t>
         </is>
       </c>
@@ -627,10 +645,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar "Golden torch", un hybride entre Heliconia psittacorum L. f. et Heliconia spathocircinata Aristeguieta, est cultivé comme plante ornementale, et peut s'échapper et devenir envahissant[8].
-Heliconia psittacorum est associé à Bidens cynapiifolia pour préparer un remède Palikur contre les fièvres paludique[2]. Les Palikur de Guyane et les Tiriyó du Suriname et du Nord du Pará (Brésil), s'en servent aussi pour apaiser les douleurs articulaires, les crampes ou les rhumatismes[9],[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar "Golden torch", un hybride entre Heliconia psittacorum L. f. et Heliconia spathocircinata Aristeguieta, est cultivé comme plante ornementale, et peut s'échapper et devenir envahissant.
+Heliconia psittacorum est associé à Bidens cynapiifolia pour préparer un remède Palikur contre les fièvres paludique. Les Palikur de Guyane et les Tiriyó du Suriname et du Nord du Pará (Brésil), s'en servent aussi pour apaiser les douleurs articulaires, les crampes ou les rhumatismes,.
 </t>
         </is>
       </c>
@@ -659,9 +679,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet rapporte ceci[11] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet rapporte ceci : 
 « MUSA {humilis) vaſculis coccineis, quinque aut ſex-floris, fructu trigono, violaceo. 
 Bihai cannacori folio anguſtiore &amp; acuminato ; florum vaſculis anguſtis, coccineis.
 Cette plante est connue ſous le nom de PETIT BALISIER. Elle croit abondamment dans les ſavanes de la crique fouillée de l'île de Caïenne, &amp; dans celles de la Guiane. »
